--- a/Bodega Dekorarte/Proyectos/Ermitaño/Entrega/Entrega - Arte.xlsx
+++ b/Bodega Dekorarte/Proyectos/Ermitaño/Entrega/Entrega - Arte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>NIT. 900,645,501-1</t>
   </si>
@@ -47,9 +47,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folder </t>
-  </si>
-  <si>
     <t>Perfecto</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>Taza de peltre</t>
-  </si>
-  <si>
-    <t>Bandeja de metal</t>
   </si>
   <si>
     <t>Espejo</t>
@@ -232,9 +226,6 @@
   </si>
   <si>
     <t>Se hizo el cambio por maletín de Epoca.</t>
-  </si>
-  <si>
-    <t>Pendiente de entrega</t>
   </si>
   <si>
     <r>
@@ -307,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,13 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -452,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,12 +481,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -679,7 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -726,6 +704,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,22 +731,16 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,33 +804,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,56 +1043,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>378611</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>41003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1997035</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1447007</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Imagen 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494B064C-ADAA-4591-A222-FB6AB828C179}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="986845" y="45690652"/>
-          <a:ext cx="1406004" cy="1618424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>596720</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>30117</xdr:rowOff>
@@ -1151,7 +1061,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1177,58 +1087,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>227415</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>41978</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2036507</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1432718</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="381" name="Imagen 380"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1019297" y="10859390"/>
-          <a:ext cx="1390740" cy="1809092"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>199179</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>44329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2053205</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1434848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1239,7 +1105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1283,7 +1149,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1327,7 +1193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1353,15 +1219,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>57465</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42183</xdr:rowOff>
+      <xdr:colOff>46259</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2246466</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1449642</xdr:rowOff>
+      <xdr:colOff>2235260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1460848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1371,7 +1237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1384,7 +1250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="550524" y="560840565"/>
+          <a:off x="628965" y="5163271"/>
           <a:ext cx="2189001" cy="1407459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1397,14 +1263,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>182620</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>115385</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>40315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2047351</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>1980116</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1438863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1415,7 +1281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1428,7 +1294,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="998418" y="10833811"/>
+          <a:off x="931183" y="6396282"/>
           <a:ext cx="1398548" cy="1864731"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1459,7 +1325,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1503,7 +1369,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1547,7 +1413,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1591,7 +1457,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1618,8 +1484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B9:I17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" headerRowCellStyle="Moneda 2">
-  <autoFilter ref="B9:I17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="B9:I15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" headerRowCellStyle="Moneda 2">
+  <autoFilter ref="B9:I15"/>
   <tableColumns count="8">
     <tableColumn id="1" name="No." dataDxfId="7"/>
     <tableColumn id="2" name="IMAGEN" dataDxfId="6"/>
@@ -1897,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I48"/>
+  <dimension ref="B1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,86 +1785,86 @@
   <sheetData>
     <row r="1" spans="2:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="103.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="2:9" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="B5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="B6" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="B7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="2:9" s="7" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="B8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -2020,98 +1886,98 @@
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
+      <c r="F10" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="24" t="s">
-        <v>25</v>
+      <c r="H10" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
-        <v>295</v>
+        <v>379</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="24" t="s">
-        <v>25</v>
+      <c r="H11" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>12</v>
+      <c r="F12" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="24" t="s">
-        <v>25</v>
+      <c r="H12" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48">
+      <c r="B13" s="21">
         <v>108</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>26</v>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2120,20 +1986,20 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>31</v>
+      <c r="H14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2142,81 +2008,39 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>29</v>
+      <c r="H15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16">
-        <v>379</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="116.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16">
-        <v>402</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="97.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2230,9 +2054,6 @@
     <row r="43" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="97.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B8:I8"/>
